--- a/biology/Botanique/Desfontainiaceae/Desfontainiaceae.xlsx
+++ b/biology/Botanique/Desfontainiaceae/Desfontainiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Desfontainiaceae (Desfontainiacées) regroupe des plantes dicotylédones. Elle ne comprend qu'un seul genre : Desfontainia. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Desfontainia, dédié au botaniste français René Desfontaines[1] par les auteurs d'une Flore du Pérou de 1794[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Desfontainia, dédié au botaniste français René Desfontaines par les auteurs d'une Flore du Pérou de 1794.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification classique de Cronquist (1981)[3] cette famille n'existe pas. Le genre Desfontainia est habituellement inclus dans la famille des Loganiaceae.
-Dans la classification phylogénétique APG (1998)[4] et classification phylogénétique APG II (2003)[5] la famille des Desfontainiaceae situe sa divergence au niveau du groupe des Astéridées, très proche des Columelliaceae : optionnellement ce genre peut être inclus dans les Columelliaceae. 
-En classification phylogénétique APG III (2009)[6] cette famille est invalide et ses genres sont incorporés dans la famille Columelliaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification classique de Cronquist (1981) cette famille n'existe pas. Le genre Desfontainia est habituellement inclus dans la famille des Loganiaceae.
+Dans la classification phylogénétique APG (1998) et classification phylogénétique APG II (2003) la famille des Desfontainiaceae situe sa divergence au niveau du groupe des Astéridées, très proche des Columelliaceae : optionnellement ce genre peut être inclus dans les Columelliaceae. 
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Columelliaceae.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon DELTA Angio           (14 septembre 2015)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (14 septembre 2015) :
 genre Desfontainia
-Selon GRIN            (14 septembre 2015)[8] :
+Selon GRIN            (14 septembre 2015) :
 genre Columellia Ruiz &amp; Pav.
 genre Desfontainia Ruiz &amp; Pav.</t>
         </is>
